--- a/학습자료/단답형/국어_복습_암기자료.xlsx
+++ b/학습자료/단답형/국어_복습_암기자료.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>곡식이나 장작 따위의 더미를 세는 단위 한 가리는 20단</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>가리</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>곡식이나 장작 따위의 더미를 세는 단위. 한 가리는 20단</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리, 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>갓</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위. 한 갓은 굴비․비웃 따위 열 마리, 또는 고비․고사리 따위 열 모숨을 한 줄로 엮은 것</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,12 +502,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>오이나 가지 따위를 묶어 세는 단위 한 거리는 50개</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>거리</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>오이나 가지 따위를 묶어 세는 단위. 한 거리는 50개</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -524,12 +524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>달걀 열 개를 묶어 세는 단위</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>꾸러미</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>달걀 열 개를 묶어 세는 단위</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,12 +546,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>물건 열두 개를 묶어 세는 단위 ('타' X)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>다스</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>물건 열두 개를 묶어 세는 단위 ('타' X)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,12 +568,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>짚, 땔나무, 채소 따위의 묶음을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>단</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>짚, 땔나무, 채소 따위의 묶음을 세는 단위</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -590,12 +590,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>두름</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>마름</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>논밭 넓이의 단위 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>마지기</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>논밭 넓이의 단위. 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -656,12 +656,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>신발의 크기를 잴 때 쓰는 단위 1문은 약 24cm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>문</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>신발의 크기를 잴 때 쓰는 단위. 1문은 약 2.4cm</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -678,12 +678,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리, 미역 열 장</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리, 미역 열 장</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -700,13 +700,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>①길이의 단위 한 발은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>발</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>①길이의 단위. 한 발은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른 쪽 손끝까지의 길이
-② (주로 ‘새끼’ 따위의 뒤에 쓰여) 약간의 그것이라는 뜻을 나타내는 말 잠깐 사이에 새끼 발이나 꼬았다</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -723,12 +722,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>벌</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -745,12 +744,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>국수, 새끼, 실 따위의 뭉치를 세는 단위</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>사리</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>국수, 새끼, 실 따위의 뭉치를 세는 단위</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -767,12 +766,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>섬</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>부피의 단위. 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -789,13 +788,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>①한 손에 잡을 만한 분량을 세는 단위 조기, 고등어, 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리)
+② 미나리나 파 따위 한 손은 한 줌 분량을 이름</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>손</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>①한 손에 잡을 만한 분량을 세는 단위. 조기, 고등어, 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리).
-② 미나리나 파 따위 한 손은 한 줌 분량을 이름.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -812,12 +811,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>술</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -834,14 +833,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>쌈</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>① 바늘을 세는 단위 24개 
 ② 옷감, 피혁 따위를 알맞은 분량으로 싸 놓은 덩이를 세는 단위
-③ 금의 무게를 나타내는 단위. 한 쌈은 금 백 냥쭝</t>
+③ 금의 무게를 나타내는 단위 한 쌈은 금 백 냥쭝</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>쌈</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -858,12 +857,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>둘을 하나로 묶어 세는 단위</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>쌍</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>둘을 하나로 묶어 세는 단위</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -880,12 +879,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>물건 열두 개를 한 단위로 세는 말('다스' X)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>타</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>물건 열두 개를 한 단위로 세는 말('다스' X)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -902,12 +901,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>아름</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -924,12 +923,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>종이를 세는 단위 1연은 500장</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>연</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>종이를 세는 단위. 1연은 500장</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -946,12 +945,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>기와를 세는 단위 한 우리는기와 2천 장</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>우리</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>기와를 세는 단위. 한 우리는기와 2천 장</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -968,12 +967,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>길이의 단위 한 자는 한 치의 열 배로 약 303cm에 해당 [비슷한 말] 척6(尺)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>자</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>길이의 단위. 한 자는 한 치의 열 배로 약 30.3cm에 해당 [비슷한 말] 척6(尺)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -990,12 +989,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>채소나 과일 따위를 묶어 세는 단위 한 접은 채소나 과일 백 개를 이름</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>접</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>채소나 과일 따위를 묶어 세는 단위. 한 접은 채소나 과일 백 개를 이름</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1012,12 +1011,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>한약의 분량을 나타내는 단위 한 제는 탕약스무 첩</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>제</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>한약의 분량을 나타내는 단위. 한 제는 탕약스무 첩</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1034,12 +1033,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>옷, 그릇 따위의 열 벌을 묶어 이른 말</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>죽</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>옷, 그릇 따위의 열 벌을 묶어 이른 말</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1056,12 +1055,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>오징어를 묶어 세는 단위 한 축은 오징어 스무 마리를 이름</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>축</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>오징어를 묶어 세는 단위 한 축은 오징어 스무 마리를 이름</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1078,13 +1077,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>길이의 단위 한 치는 한 자의 10분의 1 또는 약 303cm에 해당한다
+cf 촌(寸)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>치</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>길이의 단위. 한 치는 한 자의 10분의 1 또는 약 3.03cm에 해당한다.
-cf 촌(寸)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1101,12 +1100,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>쾌(북어를 묶어 세는 단위 한 쾌는 북어 20마리)의 방언</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>코</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>쾌(북어를 묶어 세는 단위. 한 쾌는 북어 20마리)의 방언</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1123,12 +1122,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>북어 20마리를 묶은 단위</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>쾌</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>북어 20마리를 묶은 단위</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1145,12 +1144,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>김을 세는 단위 100장</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>톳</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>김을 세는 단위 100장</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1167,12 +1166,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>沖年(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>충년</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>沖年(읽는 법)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1189,12 +1188,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>志學(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>지학</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>志學(읽는 법)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1211,12 +1210,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>弱冠(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>약관</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>弱冠(읽는 법)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1233,12 +1232,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>而立(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>이립</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>而立(읽는 법)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1255,12 +1254,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>不惑(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>불혹</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>不惑(읽는 법)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1277,12 +1276,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>知命(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>지명</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>知命(읽는 법)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1299,12 +1298,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>耳順(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>이순</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>耳順(읽는 법)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1321,12 +1320,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>換甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>환갑</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>換甲(읽는 법)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1343,12 +1342,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>還甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>환갑</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>還甲(읽는 법)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1365,12 +1364,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>回甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>회갑</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>回甲(읽는 법)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1387,12 +1386,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>古稀(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>고희</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>古稀(읽는 법)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1409,12 +1408,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>喜壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>희수</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>喜壽(읽는 법)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1431,12 +1430,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>米壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>미수</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>米壽(읽는 법)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1453,14 +1452,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>白壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>백수</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>白壽(읽는 법)</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1473,14 +1472,14 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>沖年(00살)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
         <v>10</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>沖年(00살)</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1493,14 +1492,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>志學(00살)</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>15</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>志學(00살)</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1513,14 +1512,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>弱冠(00살)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
         <v>20</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>弱冠(00살)</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1533,14 +1532,14 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>而立(00살)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>30</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>而立(00살)</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1553,14 +1552,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>不惑(00살)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
         <v>40</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>不惑(00살)</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1573,14 +1572,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>知命(00살)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
         <v>50</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>知命(00살)</t>
-        </is>
-      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1593,14 +1592,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>耳順(00살)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
         <v>60</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>耳順(00살)</t>
-        </is>
-      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1613,14 +1612,14 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>換甲(00살)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
         <v>61</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>換甲(00살)</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1633,14 +1632,14 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>還甲(00살)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
         <v>61</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>還甲(00살)</t>
-        </is>
-      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1653,14 +1652,14 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>回甲(00살)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
         <v>61</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>回甲(00살)</t>
-        </is>
-      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1673,14 +1672,14 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>古稀(00살)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>70</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>古稀(00살)</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1693,14 +1692,14 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>喜壽(00살)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
         <v>77</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>喜壽(00살)</t>
-        </is>
-      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1713,14 +1712,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>米壽(00살)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
         <v>88</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>米壽(00살)</t>
-        </is>
-      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1733,13 +1732,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>白壽(00살)</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
         <v>99</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>白壽(00살)</t>
-        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1755,13 +1754,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>㉠곡식이나 장작 따위의 더미를 세는 단위 한 가리는 스무 단이다
+장작 한 가리</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>가리</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>㉠곡식이나 장작 따위의 더미를 세는 단위. 한 가리는 스무 단이다
-장작 한 가리</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1778,12 +1777,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비, 담배 대여섯 개비</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>개비</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비, 담배 대여섯 개비</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1800,13 +1799,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>㉠오이나 가지 따위를 묶어 세는 단위 한 거리는 오이나 가지 오십 개를 이른다
+가지 두 거리</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>거리</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>㉠오이나 가지 따위를 묶어 세는 단위. 한 거리는 오이나 가지 오십 개를 이른다.
-가지 두 거리</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1823,15 +1822,15 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>거리</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
           <t>㉡탈놀음, 꼭두각시놀음, 굿 따위에서, 장(場)을 세는 단위 
 한 거리 놀다</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>거리</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1846,13 +1845,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 한 관은 한 근의 열 배로 375kg에 해당 한다
+감자 세 관</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>관</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 한 관은 한 근의 열 배로 3.75kg에 해당 한다.
-감자 세 관</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1869,15 +1868,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>그루</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
           <t>㉠식물, 특히 나무를 세는 단위 
 소나무 2천 그루</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>그루</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1892,15 +1891,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>그루</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
           <t>㉡한 해에 같은 땅에 농사짓는 횟수를 세는 단위 
 두 그루 심는 논농사</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>그루</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1915,13 +1914,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다 
+쇠고기 한 근</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>근</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다. 
-쇠고기 한 근</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1938,13 +1937,13 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>㉠길이의 단위 한 길은 여덟 자 또는 열 자로 약 24미터 또는 3미터에 해당한다
+천 길</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>길</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>㉠길이의 단위. 한 길은 여덟 자 또는 열 자로 약 2.4미터 또는 3미터에 해당한다.
-천 길</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1961,12 +1960,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>㉡길이의 단위 한 길은 사람의 키 정도의 길이이다 트럭에 실린 통나무는 굵기는 한 아름이 넘고 길이는 열 길이 넘었다</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>길</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>㉡길이의 단위. 한 길은 사람의 키 정도의 길이이다. 트럭에 실린 통나무는 굵기는 한 아름이 넘고 길이는 열 길이 넘었다.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1983,15 +1982,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>꾸러미</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
           <t>㉠달걀 열 개를 묶어 세는 단위 
 달걀 한 꾸러미</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>꾸러미</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2006,13 +2005,13 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>㉠예전에, 엽전을 세던 단위 한 냥은 한 돈의 열 배이다 
+돈 천 냥, 돈 만 냥을 꾸다</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>냥</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>㉠예전에, 엽전을 세던 단위. 한 냥은 한 돈의 열 배이다. 
-돈 천 냥, 돈 만 냥을 꾸다.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2029,13 +2028,13 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>㉠납작한 물건을 세는 단위 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다
+동전 한 닢</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>닢</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>㉠납작한 물건을 세는 단위. 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다.
-동전 한 닢</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2052,13 +2051,13 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>㉠물건 열두 개를 묶어 세는 단위 ‘12개’, ‘타(打)’로 순화 
+연필 한 다스</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>다스</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>㉠물건 열두 개를 묶어 세는 단위. ‘12개’, ‘타(打)’로 순화 
-연필 한 다스</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2075,15 +2074,15 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>단</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
           <t>㉠짚, 땔나무, 채소 따위의 묶음을 세는 단위 
 볏짚 한 단</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>단</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2098,15 +2097,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
           <t>㉠화살 따위와 같이 가늘고 긴 물건을 세는 단위 
 화살 세 대</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2121,13 +2120,13 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>㉡이나 갈비를 세는 단위 
+삼촌은 교통사고로 갈비가 세 대나 나갔다</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>㉡이나 갈비를 세는 단위 
-삼촌은 교통사고로 갈비가 세 대나 나갔다.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2144,13 +2143,13 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
+담배 한 대 먼저 채우고 나서 이야기합시다</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
-담배 한 대 먼저 채우고 나서 이야기합시다.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2167,15 +2166,15 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
           <t>㉣때리는 횟수를 세는 단위 
 회초리로 몇 대 맞을래?</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2190,13 +2189,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>㉤주사를 놓는 횟수를 세는 단위 
+엉덩이에 주사를 한 대 맞다</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>㉤주사를 놓는 횟수를 세는 단위 
-엉덩이에 주사를 한 대 맞다.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2213,14 +2212,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 귀금속이나 한약재 따위의 무게를 잴 때 쓴다 
+한 돈은 한 냥의 10분의 1, 한 푼의 열 배로 375 그램에 해당한다
+금 두 냥 서 돈</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>돈</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 귀금속이나 한약재 따위의 무게를 잴 때 쓴다. 
-한 돈은 한 냥의 10분의 1, 한 푼의 열 배로 3.75 그램에 해당한다.
-금 두 냥 서 돈</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2237,13 +2236,13 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>㉠부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다 한 되는 한 말의 10분의 1, 한 홉의 열 배로 약 1)8리 터에 해당한다
+쌀 한 되</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>되</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>㉠부피의 단위. 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다. 한 되는 한 말의 10분의 1, 한 홉의 열 배로 약 1.8리 터에 해당한다.
-쌀 한 되</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2260,15 +2259,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>되들이</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
           <t>㉠곡식이나 물, 술 따위를 되에 담아 그 분량을 세는 단위 
 한 되들이 술병</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>되들이</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2283,13 +2282,13 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>㉠논, 밭의 넓이의 단위 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다 
+땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>되지기</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>㉠논, 밭의 넓이의 단위. 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다. 
-땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2306,15 +2305,15 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>두름</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
           <t>㉠ 조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위 
 청어 한 두름</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2329,15 +2328,15 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>두름</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
           <t>㉡고사리 따위의 산나물을 열 모숨 정도로 엮은 것을 세는 단위
 고사리 한 두름</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2352,13 +2351,13 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
+바느질을 한 땀 한 땀 정성 들여 하다</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>땀</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
-바느질을 한 땀 한 땀 정성 들여 하다.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2375,13 +2374,13 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>㉠거리의 단위 1리는 약 0393km에 해당한다 
+예전에는 학교까지 오 리쯤 걸어 다녔다</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>리</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>㉠거리의 단위. 1리는 약 0.393km에 해당한다. 
-예전에는 학교까지 오 리쯤 걸어 다녔다.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2398,15 +2397,15 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>마리</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
           <t>㉠짐승이나 물고기, 벌레 따위를 세는 단위 
 소 한 마리</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>마리</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2421,13 +2420,13 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>㉠논밭 넓이의 단위 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다
+논 다섯 마지기</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>마지기</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>㉠논밭 넓이의 단위. 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다.
-논 다섯 마지기</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2444,15 +2443,15 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>모</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
           <t>㉠두부나 묵 따위를 세는 단위 
 두부 한 모</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>모</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2467,15 +2466,15 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>모금</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
           <t>㉠액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위 
 물 한 모금, 담배 몇 모금</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>모금</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2490,13 +2489,13 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>㉠길이의 단위 신발의 크기를 잴 때 쓴다 1문은 약 24cm에 해당한다
+십 문 반짜리 운동화</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>문</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>㉠길이의 단위. 신발의 크기를 잴 때 쓴다. 1문은 약 2.4cm에 해당한다.
-십 문 반짜리 운동화</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2513,15 +2512,15 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>뭇</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
           <t>㉠짚, 장작, 채소 따위의 작은 묶음을 세는 단위 
 땔감은 아예 말똥, 소똥을 말려 쓰고, 몇 뭇 안 남은 조 짚은 마소를 먹였다</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>뭇</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -2536,12 +2535,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>㉡볏단을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>㉡볏단을 세는 단위</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2558,13 +2557,13 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>㉢생선을 묶어 세는 단위 한 뭇은 생선 열 마리를 이른다 
+삼치 다섯 뭇</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>㉢생선을 묶어 세는 단위. 한 뭇은 생선 열 마리를 이른다. 
-삼치 다섯 뭇</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2581,12 +2580,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>㉣미역을 묶어 세는 단위 한 뭇은 미역 열 장을 이른다</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>㉣미역을 묶어 세는 단위. 한 뭇은 미역 열 장을 이른다.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2603,12 +2602,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>하나둘, 한둘</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>1 2</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>하나둘, 한둘</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2625,12 +2624,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>두셋</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>2 3</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>두셋</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2647,12 +2646,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>서너</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>3 4</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>서너</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2669,12 +2668,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>네댓</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>네댓</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2691,12 +2690,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>네다섯</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>네다섯</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2713,12 +2712,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>예닐곱</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>예닐곱</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2735,12 +2734,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>두서너</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>2 3 4</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>두서너</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2757,12 +2756,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>두서넛</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
           <t>2 3 4</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>두서넛</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2779,12 +2778,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>너더댓</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>너더댓</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2801,12 +2800,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>네다섯</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>네다섯</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2823,12 +2822,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>대여섯</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>대여섯</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2845,12 +2844,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>대엿</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>대엿</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2867,12 +2866,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>일여덟</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>7 8</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>일여덟</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2889,12 +2888,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>열이 조금 넘는 수</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
           <t>여남은</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>열이 조금 넘는 수</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2911,12 +2910,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>엄지(손가락)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>엄지(손가락)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2933,12 +2932,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>무지(拇指)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>무지(拇指)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2955,12 +2954,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>대무지(大拇指)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>대무지(大拇指)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2977,12 +2976,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>대지(大旨)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>대지(大旨)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2999,12 +2998,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>거지(巨指)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>거지(巨指)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3021,12 +3020,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>벽지(擘指)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>벽지(擘指)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3043,12 +3042,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>검지</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>검지</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3065,12 +3064,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>집게손가락</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>집게손가락</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3087,12 +3086,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>식지(食指)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>식지(食指)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3109,12 +3108,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>염지(鹽指)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>염지(鹽指)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3131,12 +3130,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>인지(人指)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>인지(人指)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3153,12 +3152,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>가운뎃손가락</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>가운뎃손가락</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3175,12 +3174,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>장지(長指)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>장지(長指)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3197,12 +3196,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>중지(中指)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>중지(中指)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3219,12 +3218,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>장짓가락</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>장짓가락</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3241,12 +3240,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>상지(上指)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>상지(上指)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3263,12 +3262,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>약지(藥指)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>약지(藥指)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3285,12 +3284,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>약손가락</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>약손가락</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3307,12 +3306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>무명지(無名指)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>무명지(無名指)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3329,12 +3328,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>새끼손(가락)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>새끼손(가락)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3351,12 +3350,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>소지(小指)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>소지(小指)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3373,12 +3372,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>계지(季指)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>계지(季指)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3395,12 +3394,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>수소지(手小指)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>수소지(手小指)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
